--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_3.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2041.464274420362</v>
+        <v>-128802.4181436854</v>
       </c>
     </row>
     <row r="7">
@@ -26325,7 +26325,7 @@
         <v>16126.11082971696</v>
       </c>
       <c r="F2" t="n">
-        <v>16126.11082971696</v>
+        <v>16126.11082971695</v>
       </c>
       <c r="G2" t="n">
         <v>16126.11082971696</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685536</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="E6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="F6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="G6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="H6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="I6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="J6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="K6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890126</v>
       </c>
       <c r="L6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="M6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="N6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="O6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
       <c r="P6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.93341689013</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_3.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128802.4181436854</v>
+        <v>-14717.55966134686</v>
       </c>
     </row>
     <row r="7">
@@ -26325,7 +26325,7 @@
         <v>16126.11082971696</v>
       </c>
       <c r="F2" t="n">
-        <v>16126.11082971695</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="G2" t="n">
         <v>16126.11082971696</v>
@@ -26334,7 +26334,7 @@
         <v>16126.11082971696</v>
       </c>
       <c r="I2" t="n">
-        <v>16126.11082971696</v>
+        <v>16126.11082971695</v>
       </c>
       <c r="J2" t="n">
         <v>16126.11082971696</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38027.53341689012</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="C6" t="n">
-        <v>-38027.53341689013</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="D6" t="n">
-        <v>-38027.53341689012</v>
+        <v>-24391.92684385884</v>
       </c>
       <c r="E6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="F6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="G6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="H6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="I6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="J6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="K6" t="n">
-        <v>-4399.933416890126</v>
+        <v>9235.673156141162</v>
       </c>
       <c r="L6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="M6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="N6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="O6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
       <c r="P6" t="n">
-        <v>-4399.93341689013</v>
+        <v>9235.673156141158</v>
       </c>
     </row>
   </sheetData>
